--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -429,7 +429,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,34 +437,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.08984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3570,273 +3571,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5351557-EA57-4B24-BA67-DEBBAEAB3011}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57EE45CC-CB7F-4013-B112-E291F8EEF549}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADC55C3-271F-4C86-953A-A8E970EE6DDC}"/>
 </file>
--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -372,6 +378,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -454,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -466,6 +475,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,165 +497,192 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -667,2905 +704,3343 @@
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,46 +32,49 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>111-ter</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>111-ter</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -705,3342 +708,3342 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,6 +47,12 @@
     <t/>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,9 +62,6 @@
     <t>194</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>195</t>
   </si>
   <si>
@@ -383,7 +386,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -466,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -478,7 +481,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,13 +532,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -552,13 +555,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -575,13 +578,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -598,13 +601,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -621,13 +624,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -644,13 +647,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -667,13 +670,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -689,2377 +692,2377 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>106</v>
@@ -3068,44 +3071,44 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>109</v>
@@ -3114,251 +3117,251 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>106</v>
@@ -3367,44 +3370,44 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>109</v>
@@ -3413,637 +3416,660 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G130" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G131" s="2" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="F155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>25</v>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -200,6 +200,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -344,22 +350,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto riconoscimento paterno</t>
@@ -469,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1406,19 +1412,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1429,19 +1435,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1452,19 +1458,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1475,19 +1481,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1498,19 +1504,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1521,19 +1527,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1544,19 +1550,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1567,19 +1573,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1590,19 +1596,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1619,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1642,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1665,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1688,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1711,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1757,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1780,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1803,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,16 +1921,16 @@
         <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,7 +1944,7 @@
         <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -1947,7 +1953,7 @@
         <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2240,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2263,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2378,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2401,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2427,19 @@
         <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>26</v>
@@ -2444,7 +2450,7 @@
         <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2453,7 +2459,7 @@
         <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,7 +2473,7 @@
         <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2476,7 +2482,7 @@
         <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2487,22 +2493,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
@@ -2510,19 +2516,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2562,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2579,22 +2585,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>26</v>
@@ -2602,19 +2608,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2625,22 +2631,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>26</v>
@@ -2648,22 +2654,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>26</v>
@@ -2671,19 +2677,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2694,22 +2700,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>26</v>
@@ -2717,22 +2723,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>26</v>
@@ -2740,19 +2746,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2763,22 +2769,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>26</v>
@@ -2786,19 +2792,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2809,22 +2815,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>26</v>
@@ -2832,22 +2838,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>26</v>
@@ -2855,22 +2861,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>26</v>
@@ -2878,19 +2884,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2901,22 +2907,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>26</v>
@@ -2927,19 +2933,19 @@
         <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>26</v>
@@ -2950,16 +2956,16 @@
         <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2973,16 +2979,16 @@
         <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2996,16 +3002,16 @@
         <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3016,19 +3022,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3039,19 +3045,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3062,19 +3068,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3085,19 +3091,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3108,19 +3114,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3131,19 +3137,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3154,19 +3160,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3177,19 +3183,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3200,19 +3206,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3223,19 +3229,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3246,19 +3252,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3269,19 +3275,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3292,10 +3298,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3304,7 +3310,7 @@
         <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3315,19 +3321,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3338,19 +3344,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3361,19 +3367,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3384,19 +3390,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3407,19 +3413,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3430,19 +3436,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3453,22 +3459,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>26</v>
@@ -3476,22 +3482,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>26</v>
@@ -3499,79 +3505,79 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3580,495 +3586,610 @@
         <v>122</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G155" s="2" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -392,7 +392,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -487,7 +490,7 @@
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4106,7 +4109,7 @@
         <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4126,19 +4129,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4149,19 +4152,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
@@ -4172,10 +4175,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4184,7 +4187,7 @@
         <v>24</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4109,7 +4106,7 @@
         <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4129,19 +4126,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4152,19 +4149,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
@@ -4175,10 +4172,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4187,7 +4184,7 @@
         <v>24</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4106,7 +4109,7 @@
         <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4126,19 +4129,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4149,19 +4152,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
@@ -4172,10 +4175,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4184,7 +4187,7 @@
         <v>24</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -478,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -488,7 +518,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1967,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1990,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2273,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2319,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2457,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2496,22 +2526,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
@@ -2519,19 +2549,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2572,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2641,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2664,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2657,22 +2687,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>26</v>
@@ -2680,19 +2710,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2703,22 +2733,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>26</v>
@@ -2726,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>14</v>
@@ -2749,19 +2779,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2802,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2825,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2848,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2871,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2864,22 +2894,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>26</v>
@@ -2887,22 +2917,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>26</v>
@@ -2910,22 +2940,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>26</v>
@@ -2933,19 +2963,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>14</v>
@@ -2956,22 +2986,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>26</v>
@@ -2979,19 +3009,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3002,19 +3032,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3025,19 +3055,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3048,19 +3078,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3071,19 +3101,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3094,22 +3124,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3117,19 +3147,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3140,22 +3170,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>26</v>
@@ -3163,22 +3193,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>26</v>
@@ -3186,19 +3216,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3209,19 +3239,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3232,19 +3262,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3255,19 +3285,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3278,22 +3308,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>26</v>
@@ -3301,19 +3331,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3324,22 +3354,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>26</v>
@@ -3347,19 +3377,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3370,19 +3400,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3393,19 +3423,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3416,19 +3446,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3439,19 +3469,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3462,19 +3492,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3485,19 +3515,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3508,19 +3538,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3531,22 +3561,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>26</v>
@@ -3554,22 +3584,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>26</v>
@@ -3577,19 +3607,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3600,599 +3630,921 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
+      <c r="E175" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -152,6 +152,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -206,13 +212,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1468,19 +1474,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1497,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1520,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1543,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1566,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1589,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1658,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2210,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2233,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2279,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2394,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2417,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2624,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2664,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2739,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2759,7 +2765,7 @@
         <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
@@ -2768,10 +2774,10 @@
         <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>26</v>
@@ -2782,16 +2788,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,16 +2811,16 @@
         <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2825,22 +2831,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>26</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2871,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2917,22 +2923,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>26</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2963,22 +2969,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>26</v>
@@ -2986,22 +2992,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>26</v>
@@ -3009,22 +3015,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>26</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3055,22 +3061,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>26</v>
@@ -3078,22 +3084,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>26</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3124,22 +3130,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3147,19 +3153,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3170,22 +3176,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>26</v>
@@ -3193,22 +3199,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>26</v>
@@ -3216,22 +3222,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>26</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3262,22 +3268,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>26</v>
@@ -3285,22 +3291,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>26</v>
@@ -3308,22 +3314,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>26</v>
@@ -3331,19 +3337,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3354,22 +3360,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>26</v>
@@ -3380,16 +3386,16 @@
         <v>104</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3403,19 +3409,19 @@
         <v>104</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>26</v>
@@ -3426,16 +3432,16 @@
         <v>104</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3449,19 +3455,19 @@
         <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>26</v>
@@ -3469,19 +3475,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3492,19 +3498,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3515,19 +3521,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3538,19 +3544,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3561,19 +3567,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3584,19 +3590,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3607,19 +3613,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3630,19 +3636,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3653,19 +3659,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3676,19 +3682,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3699,19 +3705,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3722,19 +3728,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3745,10 +3751,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3757,7 +3763,7 @@
         <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3768,19 +3774,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3791,19 +3797,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3814,19 +3820,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3837,19 +3843,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3860,19 +3866,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3883,22 +3889,22 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>26</v>
@@ -3906,22 +3912,22 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>26</v>
@@ -3929,19 +3935,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3952,79 +3958,79 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4033,518 +4039,633 @@
         <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B175" s="2" t="s">
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
+      <c r="E180" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1497,19 +1503,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1520,19 +1526,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1549,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1572,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1595,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1618,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1825,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2331,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2354,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2377,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2423,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2469,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2492,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2515,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2561,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2584,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2630,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2653,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,7 +2840,7 @@
         <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -2843,10 +2849,10 @@
         <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>26</v>
@@ -2857,16 +2863,16 @@
         <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,7 +2886,7 @@
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
@@ -2889,7 +2895,7 @@
         <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2900,22 +2906,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>26</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3015,22 +3021,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>26</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3061,22 +3067,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>26</v>
@@ -3084,19 +3090,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>14</v>
@@ -3107,19 +3113,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3130,22 +3136,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3153,22 +3159,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>26</v>
@@ -3176,19 +3182,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>14</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3274,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>14</v>
@@ -3291,22 +3297,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>26</v>
@@ -3314,22 +3320,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>26</v>
@@ -3337,19 +3343,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3360,22 +3366,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>26</v>
@@ -3383,22 +3389,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>26</v>
@@ -3406,22 +3412,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>26</v>
@@ -3429,19 +3435,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3452,22 +3458,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>26</v>
@@ -3478,16 +3484,16 @@
         <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3501,19 +3507,19 @@
         <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>26</v>
@@ -3524,16 +3530,16 @@
         <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3547,19 +3553,19 @@
         <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>26</v>
@@ -3567,19 +3573,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3590,19 +3596,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3613,19 +3619,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3636,19 +3642,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3665,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3682,19 +3688,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3705,19 +3711,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3728,19 +3734,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3751,19 +3757,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3774,19 +3780,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3797,19 +3803,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3820,19 +3826,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3843,10 +3849,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3855,7 +3861,7 @@
         <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3866,19 +3872,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3889,19 +3895,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3912,19 +3918,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3935,19 +3941,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3964,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3981,22 +3987,22 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>26</v>
@@ -4004,22 +4010,22 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>26</v>
@@ -4027,19 +4033,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4050,56 +4056,56 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
@@ -4108,21 +4114,21 @@
         <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4131,541 +4137,656 @@
         <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B180" s="2" t="s">
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1526,19 +1532,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1555,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1578,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1601,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1647,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2147,19 +2153,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2199,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2475,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2544,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2567,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2590,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2613,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2636,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2659,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2682,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2820,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2866,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2889,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2909,7 +2915,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -2918,10 +2924,10 @@
         <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>26</v>
@@ -2932,16 +2938,16 @@
         <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2955,7 +2961,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -2964,7 +2970,7 @@
         <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,22 +2981,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>26</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3090,22 +3096,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>26</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,22 +3142,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3159,19 +3165,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>14</v>
@@ -3182,19 +3188,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,22 +3211,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>26</v>
@@ -3228,19 +3234,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>14</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3274,22 +3280,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>26</v>
@@ -3297,22 +3303,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>26</v>
@@ -3320,19 +3326,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>14</v>
@@ -3343,19 +3349,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3366,19 +3372,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>14</v>
@@ -3389,22 +3395,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>26</v>
@@ -3412,22 +3418,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>26</v>
@@ -3435,19 +3441,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3458,22 +3464,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>26</v>
@@ -3481,22 +3487,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>26</v>
@@ -3504,22 +3510,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>26</v>
@@ -3527,19 +3533,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3550,22 +3556,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>26</v>
@@ -3576,16 +3582,16 @@
         <v>108</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3599,19 +3605,19 @@
         <v>108</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>26</v>
@@ -3622,16 +3628,16 @@
         <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3645,19 +3651,19 @@
         <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>26</v>
@@ -3665,19 +3671,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3688,19 +3694,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3711,19 +3717,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3734,19 +3740,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3757,19 +3763,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3780,19 +3786,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3803,19 +3809,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3826,19 +3832,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3849,19 +3855,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3872,19 +3878,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3895,19 +3901,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3918,19 +3924,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3941,10 +3947,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -3953,7 +3959,7 @@
         <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3964,19 +3970,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3987,19 +3993,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4010,19 +4016,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4033,19 +4039,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4056,19 +4062,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4079,22 +4085,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>26</v>
@@ -4102,22 +4108,22 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>26</v>
@@ -4125,19 +4131,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4148,56 +4154,56 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
@@ -4206,21 +4212,21 @@
         <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4229,564 +4235,679 @@
         <v>138</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B185" s="2" t="s">
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="C189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -526,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3930,7 +3936,7 @@
         <v>132</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>112</v>
@@ -3947,19 +3953,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3970,19 +3976,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3993,19 +3999,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4016,19 +4022,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4039,19 +4045,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4062,19 +4068,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4085,19 +4091,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4108,19 +4114,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4131,19 +4137,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4154,19 +4160,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4177,22 +4183,22 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>26</v>
@@ -4200,19 +4206,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>14</v>
@@ -4223,22 +4229,22 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>26</v>
@@ -4246,10 +4252,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
@@ -4258,21 +4264,21 @@
         <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4281,633 +4287,679 @@
         <v>140</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -4580,7 +4580,7 @@
         <v>66</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>142</v>
@@ -4603,7 +4603,7 @@
         <v>68</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>142</v>
@@ -4612,7 +4612,7 @@
         <v>69</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>144</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -532,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1561,19 +1573,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1596,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1619,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1642,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1665,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1688,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1711,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1734,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1757,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1780,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1803,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1826,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1849,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1918,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1941,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1964,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1987,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2010,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2033,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2056,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2079,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2102,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2148,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2217,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2240,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2263,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2286,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2309,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2332,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2355,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2378,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2401,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2424,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2447,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2470,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2493,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2516,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2539,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2562,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2585,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2608,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2631,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2654,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2677,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2700,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2723,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2746,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2792,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2815,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2838,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2861,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2907,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2930,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2953,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2964,19 +2976,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2987,22 +2999,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>26</v>
@@ -3010,19 +3022,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3045,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3091,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3114,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3125,22 +3137,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>26</v>
@@ -3148,19 +3160,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3171,22 +3183,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>26</v>
@@ -3194,19 +3206,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3217,22 +3229,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>26</v>
@@ -3240,19 +3252,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>14</v>
@@ -3263,19 +3275,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3286,19 +3298,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3309,22 +3321,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>26</v>
@@ -3332,22 +3344,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>26</v>
@@ -3355,22 +3367,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>26</v>
@@ -3378,22 +3390,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>26</v>
@@ -3401,22 +3413,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>26</v>
@@ -3424,19 +3436,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>14</v>
@@ -3447,19 +3459,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3470,22 +3482,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>26</v>
@@ -3493,19 +3505,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>14</v>
@@ -3516,22 +3528,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>26</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3562,22 +3574,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>26</v>
@@ -3585,19 +3597,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3608,19 +3620,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>14</v>
@@ -3631,19 +3643,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3654,19 +3666,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>14</v>
@@ -3677,22 +3689,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>26</v>
@@ -3700,19 +3712,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3723,19 +3735,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3746,19 +3758,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3769,19 +3781,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3792,22 +3804,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>26</v>
@@ -3815,19 +3827,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3838,22 +3850,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>26</v>
@@ -3861,19 +3873,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3884,19 +3896,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3907,19 +3919,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3930,19 +3942,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3953,19 +3965,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3976,19 +3988,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -3999,19 +4011,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4022,19 +4034,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4045,19 +4057,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4068,19 +4080,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4091,19 +4103,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4114,19 +4126,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4137,19 +4149,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4160,19 +4172,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4183,19 +4195,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4206,22 +4218,22 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>26</v>
@@ -4229,22 +4241,22 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>26</v>
@@ -4252,22 +4264,22 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>26</v>
@@ -4275,19 +4287,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4298,668 +4310,898 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="E200" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
+      <c r="E202" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>26</v>
       </c>
     </row>
